--- a/chart_store/chart_store_segment4.xlsx
+++ b/chart_store/chart_store_segment4.xlsx
@@ -16,524 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="185">
   <si>
     <t>NSE</t>
   </si>
   <si>
-    <t>UBL</t>
-  </si>
-  <si>
     <t>scrip</t>
   </si>
   <si>
-    <t>TVSMOTOR</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>TATAPOWER</t>
-  </si>
-  <si>
-    <t>TATAMTRDVR</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>TATAELXSI</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>STEL</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>RBL</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>OAL</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>NIITTECH</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>MOTHERSUMI</t>
-  </si>
-  <si>
-    <t>MINDTREE</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>MFSL</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>INFRATEL</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>IDFC</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>MCDOWELL-N</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>MARICO</t>
-  </si>
-  <si>
-    <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>HEXAWARE</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>FSL</t>
-  </si>
-  <si>
-    <t>FEDERALBNK</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>EICHERMOT</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>CESC</t>
-  </si>
-  <si>
-    <t>CENTURYTEX</t>
-  </si>
-  <si>
-    <t>CANBK</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>AMARAJABAT</t>
-  </si>
-  <si>
-    <t>ADANIPOWER</t>
-  </si>
-  <si>
-    <t>ADANIPORTS</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>BHARATFORG</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>APOLLO</t>
-  </si>
-  <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>EQUITAS</t>
-  </si>
-  <si>
-    <t>SRTRANSFIN</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>IBULHSGFIN</t>
-  </si>
-  <si>
-    <t>LICHSGFIN</t>
-  </si>
-  <si>
-    <t>BERGEPAINT</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
-    <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>HAVELLS</t>
-  </si>
-  <si>
-    <t>CADILAHC</t>
-  </si>
-  <si>
-    <t>TATAGLOBAL</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>L&amp;TFH</t>
-  </si>
-  <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>UNIONBANK</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>DISHTV</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>CASTROLIND</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>N100</t>
-  </si>
-  <si>
-    <t>MUTHOOTFIN</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>ITI</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>GMRINFRA</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>NIFTY 50</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>NIFTY AUTO</t>
-  </si>
-  <si>
-    <t>NIFTY METAL</t>
-  </si>
-  <si>
-    <t>NIFTY ENERGY</t>
-  </si>
-  <si>
-    <t>NIFTY MIDCAP 50</t>
-  </si>
-  <si>
-    <t>NIFTY SERV SECTOR</t>
-  </si>
-  <si>
-    <t>NIFTY COMMODITIES</t>
-  </si>
-  <si>
-    <t>NIFTY REALTY</t>
-  </si>
-  <si>
-    <t>NIFTY PSU BANK</t>
-  </si>
-  <si>
-    <t>NIFTY BANK</t>
-  </si>
-  <si>
-    <t>NIFTY FMCG</t>
-  </si>
-  <si>
-    <t>NIFTY IT</t>
-  </si>
-  <si>
-    <t>NIFTY PHARMA</t>
-  </si>
-  <si>
-    <t>NIFTY INFRA</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
@@ -541,6 +31,546 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>TAJGVK</t>
+  </si>
+  <si>
+    <t>TAKE</t>
+  </si>
+  <si>
+    <t>TALBROAUTO</t>
+  </si>
+  <si>
+    <t>TALWALKARS</t>
+  </si>
+  <si>
+    <t>TALWGYM</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>TARMAT</t>
+  </si>
+  <si>
+    <t>TASTYBITE</t>
+  </si>
+  <si>
+    <t>TATACOFFEE</t>
+  </si>
+  <si>
+    <t>TATAINVEST</t>
+  </si>
+  <si>
+    <t>TATAMETALI</t>
+  </si>
+  <si>
+    <t>TATASTLBSL</t>
+  </si>
+  <si>
+    <t>TBZ</t>
+  </si>
+  <si>
+    <t>TCI</t>
+  </si>
+  <si>
+    <t>TCIDEVELOP</t>
+  </si>
+  <si>
+    <t>TCIFINANCE</t>
+  </si>
+  <si>
+    <t>TCNSBRANDS</t>
+  </si>
+  <si>
+    <t>TCPLPACK</t>
+  </si>
+  <si>
+    <t>TDPOWERSYS</t>
+  </si>
+  <si>
+    <t>TEAMLEASE</t>
+  </si>
+  <si>
+    <t>TECHIN</t>
+  </si>
+  <si>
+    <t>TECHNOE</t>
+  </si>
+  <si>
+    <t>TECHNOFAB</t>
+  </si>
+  <si>
+    <t>TEJASNET</t>
+  </si>
+  <si>
+    <t>TERASOFT</t>
+  </si>
+  <si>
+    <t>TEXINFRA</t>
+  </si>
+  <si>
+    <t>TEXMOPIPES</t>
+  </si>
+  <si>
+    <t>TEXRAIL</t>
+  </si>
+  <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
+    <t>TGBHOTELS</t>
+  </si>
+  <si>
+    <t>THANGAMAYL</t>
+  </si>
+  <si>
+    <t>THEINVEST</t>
+  </si>
+  <si>
+    <t>THEMISMED</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
+    <t>THYROCARE</t>
+  </si>
+  <si>
+    <t>TIDEWATER</t>
+  </si>
+  <si>
+    <t>TIIL</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>TIJARIA</t>
+  </si>
+  <si>
+    <t>TIL</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>TINPLATE</t>
+  </si>
+  <si>
+    <t>TIPSINDLTD</t>
+  </si>
+  <si>
+    <t>TMRVL</t>
+  </si>
+  <si>
+    <t>TNPETRO</t>
+  </si>
+  <si>
+    <t>TNPL</t>
+  </si>
+  <si>
+    <t>TOKYOPLAST</t>
+  </si>
+  <si>
+    <t>TPLPLASTEH</t>
+  </si>
+  <si>
+    <t>TREJHARA</t>
+  </si>
+  <si>
+    <t>TRENT</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>TRIGYN</t>
+  </si>
+  <si>
+    <t>TRIL</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>TTKHLTCARE</t>
+  </si>
+  <si>
+    <t>TTKPRESTIG</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>TTML</t>
+  </si>
+  <si>
+    <t>TVSSRICHAK</t>
+  </si>
+  <si>
+    <t>TWL</t>
+  </si>
+  <si>
+    <t>UCALFUEL</t>
+  </si>
+  <si>
+    <t>UCOBANK</t>
+  </si>
+  <si>
+    <t>UFLEX</t>
+  </si>
+  <si>
+    <t>UFO</t>
+  </si>
+  <si>
+    <t>UGARSUGAR</t>
+  </si>
+  <si>
+    <t>UJAAS</t>
+  </si>
+  <si>
+    <t>UMANGDAIRY</t>
+  </si>
+  <si>
+    <t>UMESLTD</t>
+  </si>
+  <si>
+    <t>UNICHEMLAB</t>
+  </si>
+  <si>
+    <t>UNIENTER</t>
+  </si>
+  <si>
+    <t>UNIPLY</t>
+  </si>
+  <si>
+    <t>UNITECH</t>
+  </si>
+  <si>
+    <t>UNITEDBNK</t>
+  </si>
+  <si>
+    <t>UNITEDTEA</t>
+  </si>
+  <si>
+    <t>UNIVCABLES</t>
+  </si>
+  <si>
+    <t>URJA</t>
+  </si>
+  <si>
+    <t>USHAMART</t>
+  </si>
+  <si>
+    <t>UTINEXT50</t>
+  </si>
+  <si>
+    <t>UTINIFTETF</t>
+  </si>
+  <si>
+    <t>UTISENSETF</t>
+  </si>
+  <si>
+    <t>UTISXN50</t>
+  </si>
+  <si>
+    <t>UTTAMSTL</t>
+  </si>
+  <si>
+    <t>UTTAMSUGAR</t>
+  </si>
+  <si>
+    <t>UVSL</t>
+  </si>
+  <si>
+    <t>V2RETAIL</t>
+  </si>
+  <si>
+    <t>VADILALIND</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
+  </si>
+  <si>
+    <t>VAKRANGEE</t>
+  </si>
+  <si>
+    <t>VARDHACRLC</t>
+  </si>
+  <si>
+    <t>VARROC</t>
+  </si>
+  <si>
+    <t>VASCONEQ</t>
+  </si>
+  <si>
+    <t>VASWANI</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>VENKEYS</t>
+  </si>
+  <si>
+    <t>VENUSREM</t>
+  </si>
+  <si>
+    <t>VESUVIUS</t>
+  </si>
+  <si>
+    <t>VETO</t>
+  </si>
+  <si>
+    <t>VHL</t>
+  </si>
+  <si>
+    <t>VIDHIING</t>
+  </si>
+  <si>
+    <t>VIJIFIN</t>
+  </si>
+  <si>
+    <t>VIKASECO</t>
+  </si>
+  <si>
+    <t>VIKASMCORP</t>
+  </si>
+  <si>
+    <t>VIMTALABS</t>
+  </si>
+  <si>
+    <t>VINATIORGA</t>
+  </si>
+  <si>
+    <t>VINDHYATEL</t>
+  </si>
+  <si>
+    <t>VINYLINDIA</t>
+  </si>
+  <si>
+    <t>VIPCLOTHNG</t>
+  </si>
+  <si>
+    <t>VIPIND</t>
+  </si>
+  <si>
+    <t>VIPULLTD</t>
+  </si>
+  <si>
+    <t>VISAKAIND</t>
+  </si>
+  <si>
+    <t>VISASTEEL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>VIVIDHA</t>
+  </si>
+  <si>
+    <t>VIVIMEDLAB</t>
+  </si>
+  <si>
+    <t>VLSFINANCE</t>
+  </si>
+  <si>
+    <t>VMART</t>
+  </si>
+  <si>
+    <t>VOLTAMP</t>
+  </si>
+  <si>
+    <t>VRLLOG</t>
+  </si>
+  <si>
+    <t>VSSL</t>
+  </si>
+  <si>
+    <t>VSTIND</t>
+  </si>
+  <si>
+    <t>VSTTILLERS</t>
+  </si>
+  <si>
+    <t>VTL</t>
+  </si>
+  <si>
+    <t>WABAG</t>
+  </si>
+  <si>
+    <t>WABCOINDIA</t>
+  </si>
+  <si>
+    <t>WALCHANNAG</t>
+  </si>
+  <si>
+    <t>WEBELSOLAR</t>
+  </si>
+  <si>
+    <t>WEIZFOREX</t>
+  </si>
+  <si>
+    <t>WEIZMANIND</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>WELENT</t>
+  </si>
+  <si>
+    <t>WELINV</t>
+  </si>
+  <si>
+    <t>WELSPUNIND</t>
+  </si>
+  <si>
+    <t>WENDT</t>
+  </si>
+  <si>
+    <t>WHEELS</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>WILLAMAGOR</t>
+  </si>
+  <si>
+    <t>WINDMACHIN</t>
+  </si>
+  <si>
+    <t>WONDERLA</t>
+  </si>
+  <si>
+    <t>XCHANGING</t>
+  </si>
+  <si>
+    <t>XELPMOC</t>
+  </si>
+  <si>
+    <t>XPROINDIA</t>
+  </si>
+  <si>
+    <t>ZEELEARN</t>
+  </si>
+  <si>
+    <t>ZEEMEDIA</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>ZENTEC</t>
+  </si>
+  <si>
+    <t>ZODJRDMKJ</t>
+  </si>
+  <si>
+    <t>ZUARI</t>
+  </si>
+  <si>
+    <t>ZUARIGLOB</t>
+  </si>
+  <si>
+    <t>20MICRONS</t>
+  </si>
+  <si>
+    <t>21STCENMGM</t>
+  </si>
+  <si>
+    <t>3IINFOTECH</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>5PAISA</t>
+  </si>
+  <si>
+    <t>63MOONS</t>
+  </si>
+  <si>
+    <t>8KMILES</t>
+  </si>
+  <si>
+    <t>A2ZINFRA</t>
+  </si>
+  <si>
+    <t>AARTIDRUGS</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>AARVEEDEN</t>
+  </si>
+  <si>
+    <t>AAVAS</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>ABCAPITAL</t>
+  </si>
+  <si>
+    <t>ABFRL</t>
+  </si>
+  <si>
+    <t>ABSLNN50ET</t>
+  </si>
+  <si>
+    <t>ACCELYA</t>
+  </si>
+  <si>
+    <t>ADANIGAS</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>ADANITRANS</t>
+  </si>
+  <si>
+    <t>ADFFOODS</t>
+  </si>
+  <si>
+    <t>ADHUNIKIND</t>
+  </si>
+  <si>
+    <t>ADLABS</t>
+  </si>
+  <si>
+    <t>ADORWELD</t>
+  </si>
+  <si>
+    <t>ADSL</t>
+  </si>
+  <si>
+    <t>ADVANIHOTR</t>
+  </si>
+  <si>
+    <t>ADVENZYMES</t>
   </si>
 </sst>
 </file>
@@ -564,7 +594,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -587,20 +617,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,7 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -917,1877 +937,2348 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B42" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" t="s">
-        <v>47</v>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" t="s">
-        <v>50</v>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
-        <v>54</v>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
+      <c r="B55" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="B56" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="B58" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
+      <c r="B59" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
+      <c r="B60" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" t="s">
-        <v>62</v>
+      <c r="B62" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" t="s">
-        <v>63</v>
+      <c r="B63" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" t="s">
-        <v>64</v>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
-        <v>65</v>
+      <c r="B65" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
-        <v>66</v>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" t="s">
-        <v>67</v>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
+      <c r="B68" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" t="s">
-        <v>69</v>
+      <c r="B69" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" t="s">
-        <v>70</v>
+      <c r="B70" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" t="s">
-        <v>71</v>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" t="s">
-        <v>72</v>
+      <c r="B72" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
+      <c r="B73" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" t="s">
-        <v>74</v>
+      <c r="B74" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" t="s">
-        <v>75</v>
+      <c r="B75" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" t="s">
-        <v>76</v>
+      <c r="B76" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" t="s">
-        <v>77</v>
+      <c r="B77" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" t="s">
-        <v>78</v>
+      <c r="B78" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" t="s">
-        <v>79</v>
+      <c r="B79" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
-        <v>80</v>
+      <c r="B80" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
-        <v>81</v>
+      <c r="B81" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" t="s">
-        <v>82</v>
+      <c r="B82" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" t="s">
-        <v>83</v>
+      <c r="B83" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" t="s">
-        <v>84</v>
+      <c r="B84" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" t="s">
-        <v>85</v>
+      <c r="B85" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
-        <v>86</v>
+      <c r="B86" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
+      <c r="B87" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" t="s">
-        <v>88</v>
+      <c r="B88" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" t="s">
-        <v>89</v>
+      <c r="B89" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" t="s">
-        <v>90</v>
+      <c r="B90" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" t="s">
-        <v>91</v>
+      <c r="B91" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" t="s">
-        <v>92</v>
+      <c r="B92" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" t="s">
-        <v>93</v>
+      <c r="B93" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" t="s">
-        <v>94</v>
+      <c r="B94" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
+      <c r="B95" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
+      <c r="B96" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" t="s">
-        <v>97</v>
+      <c r="B97" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" t="s">
-        <v>98</v>
+      <c r="B98" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" t="s">
-        <v>99</v>
+      <c r="B99" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" t="s">
-        <v>100</v>
+      <c r="B100" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" t="s">
-        <v>101</v>
+      <c r="B101" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" t="s">
-        <v>102</v>
+      <c r="B102" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" t="s">
-        <v>103</v>
+      <c r="B103" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" t="s">
-        <v>104</v>
+      <c r="B104" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" t="s">
-        <v>105</v>
+      <c r="B105" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" t="s">
-        <v>106</v>
+      <c r="B106" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" t="s">
-        <v>107</v>
+      <c r="B107" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" t="s">
-        <v>108</v>
+      <c r="B108" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" t="s">
-        <v>109</v>
+      <c r="B109" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" t="s">
-        <v>110</v>
+      <c r="B110" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" t="s">
-        <v>111</v>
+      <c r="B111" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B112" t="s">
-        <v>112</v>
+      <c r="B112" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B113" t="s">
-        <v>113</v>
+      <c r="B113" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B114" t="s">
-        <v>114</v>
+      <c r="B114" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B115" t="s">
-        <v>115</v>
+      <c r="B115" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B116" t="s">
-        <v>116</v>
+      <c r="B116" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B117" t="s">
-        <v>117</v>
+      <c r="B117" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B118" t="s">
-        <v>118</v>
+      <c r="B118" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B119" t="s">
-        <v>119</v>
+      <c r="B119" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B120" t="s">
-        <v>120</v>
+      <c r="B120" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" t="s">
-        <v>121</v>
+      <c r="B121" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B122" t="s">
-        <v>122</v>
+      <c r="B122" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B123" t="s">
-        <v>123</v>
+      <c r="B123" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B124" t="s">
-        <v>124</v>
+      <c r="B124" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B125" t="s">
-        <v>125</v>
+      <c r="B125" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B126" t="s">
-        <v>126</v>
+      <c r="B126" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B127" t="s">
-        <v>127</v>
+      <c r="B127" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B128" t="s">
-        <v>128</v>
+      <c r="B128" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B129" t="s">
-        <v>129</v>
+      <c r="B129" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B130" t="s">
-        <v>130</v>
+      <c r="B130" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" t="s">
-        <v>131</v>
+      <c r="B131" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B132" t="s">
-        <v>132</v>
+      <c r="B132" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B133" t="s">
-        <v>133</v>
+      <c r="B133" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" t="s">
-        <v>134</v>
+      <c r="B134" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B135" t="s">
-        <v>135</v>
+      <c r="B135" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" t="s">
-        <v>136</v>
+      <c r="B136" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" t="s">
-        <v>137</v>
+      <c r="B137" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" t="s">
-        <v>138</v>
+      <c r="B138" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" t="s">
-        <v>139</v>
+      <c r="B139" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" t="s">
-        <v>140</v>
+      <c r="B140" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B141" t="s">
-        <v>141</v>
+      <c r="B141" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" t="s">
-        <v>142</v>
+      <c r="B142" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" t="s">
-        <v>143</v>
+      <c r="B143" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" t="s">
-        <v>144</v>
+      <c r="B144" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" t="s">
-        <v>145</v>
+      <c r="B145" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" t="s">
-        <v>146</v>
+      <c r="B146" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" t="s">
-        <v>147</v>
+      <c r="B147" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" t="s">
-        <v>148</v>
+      <c r="B148" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" t="s">
-        <v>149</v>
+      <c r="B149" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" t="s">
-        <v>150</v>
+      <c r="B150" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" t="s">
-        <v>151</v>
+      <c r="B151" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B152" t="s">
-        <v>152</v>
+      <c r="B152" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" t="s">
-        <v>153</v>
+      <c r="B153" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" t="s">
-        <v>154</v>
+      <c r="B154" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" t="s">
-        <v>155</v>
+      <c r="B155" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B156" t="s">
-        <v>156</v>
+      <c r="B156" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="B170" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C162 C164 C166 C168 C160 C170 C2:C158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C251">
       <formula1>"index,scrip"</formula1>
     </dataValidation>
   </dataValidations>
